--- a/FP/Matriz Ponto de Fusão.xlsx
+++ b/FP/Matriz Ponto de Fusão.xlsx
@@ -404,7 +404,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
